--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
+    <t>APPLIED MATE</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>SCHWAB</t>
   </si>
   <si>
     <t>FREEPORT</t>
   </si>
   <si>
-    <t>NEXTERA ENER</t>
-  </si>
-  <si>
-    <t>MONSTER BEVE</t>
-  </si>
-  <si>
-    <t>EQUINIX INC</t>
-  </si>
-  <si>
-    <t>AMAZON</t>
-  </si>
-  <si>
-    <t>BERKSHIRE</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
+    <t>GOLDMANSACHS</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>VISA INC</t>
+  </si>
+  <si>
+    <t>NVIDIA CORP</t>
+  </si>
+  <si>
+    <t>A1MT34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>SCHW34</t>
   </si>
   <si>
     <t>FCXO34</t>
   </si>
   <si>
-    <t>NEXT34</t>
-  </si>
-  <si>
-    <t>M1NS34</t>
-  </si>
-  <si>
-    <t>EQIX34</t>
-  </si>
-  <si>
-    <t>AMZO34</t>
-  </si>
-  <si>
-    <t>BERK34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>SBUX</t>
+    <t>GSGI34</t>
+  </si>
+  <si>
+    <t>BKNG34</t>
+  </si>
+  <si>
+    <t>VISA34</t>
+  </si>
+  <si>
+    <t>NVDC34</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>SCHW</t>
   </si>
   <si>
     <t>FCX</t>
   </si>
   <si>
-    <t>NEE</t>
-  </si>
-  <si>
-    <t>MNST</t>
-  </si>
-  <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>BRK-B</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>RIG</t>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>NVDA</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>0.9522413976974349</v>
+        <v>3.679612919982915</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.3542687892913818</v>
+        <v>1.144415789909544</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.2914665568787029</v>
+        <v>1.077664428195931</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.2481803039645456</v>
+        <v>0.5357488393783569</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.150323490498522</v>
+        <v>0.4735503112792685</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.1217513185933043</v>
+        <v>0.3455013798499351</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.1207962574935664</v>
+        <v>0.2976730074640841</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.1086003098549497</v>
+        <v>0.2355635226157204</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.1063223826904505</v>
+        <v>0.2101189738445157</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.0877553056659508</v>
+        <v>0.2047127197481871</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>APPLIED MATE</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
     <t>SL GREEN REA</t>
   </si>
   <si>
+    <t>GOLDMANSACHS</t>
+  </si>
+  <si>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>UPSTART HOLD</t>
+  </si>
+  <si>
+    <t>MERCADOLIBRE</t>
+  </si>
+  <si>
+    <t>BIONTECH SE</t>
+  </si>
+  <si>
     <t>TRANSOCEAN</t>
   </si>
   <si>
-    <t>SCHWAB</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>GOLDMANSACHS</t>
-  </si>
-  <si>
-    <t>BOOKING</t>
-  </si>
-  <si>
-    <t>VISA INC</t>
-  </si>
-  <si>
-    <t>NVIDIA CORP</t>
-  </si>
-  <si>
-    <t>A1MT34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>NETFLIX</t>
   </si>
   <si>
     <t>S1LG34</t>
   </si>
   <si>
+    <t>GSGI34</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>U2PS34</t>
+  </si>
+  <si>
+    <t>MELI34</t>
+  </si>
+  <si>
+    <t>B1NT34</t>
+  </si>
+  <si>
     <t>RIGG34</t>
   </si>
   <si>
-    <t>SCHW34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>GSGI34</t>
-  </si>
-  <si>
-    <t>BKNG34</t>
-  </si>
-  <si>
-    <t>VISA34</t>
-  </si>
-  <si>
-    <t>NVDC34</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>ADM</t>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>NFLX34</t>
   </si>
   <si>
     <t>SLG</t>
   </si>
   <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>UPST</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>BNTX</t>
+  </si>
+  <si>
     <t>RIG</t>
   </si>
   <si>
-    <t>SCHW</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>NVDA</t>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>NFLX</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>3.679612919982915</v>
+        <v>1.586748123168945</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.144415789909544</v>
+        <v>1.295676285766945</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>1.077664428195931</v>
+        <v>0.7082431688613724</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.5357488393783569</v>
+        <v>0.5571494585456094</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.4735503112792685</v>
+        <v>0.5241171810703236</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.3455013798499351</v>
+        <v>0.4171573620054687</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.2976730074640841</v>
+        <v>0.3723735175590264</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.2355635226157204</v>
+        <v>0.3496986702957656</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.2101189738445157</v>
+        <v>0.2121297860867344</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2047127197481871</v>
+        <v>0.1620092486962719</v>
       </c>
     </row>
   </sheetData>
